--- a/Dokumentation/Projektkalender.xlsx
+++ b/Dokumentation/Projektkalender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicole\Documents\GitHub\TeeShop_soft\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C15E2E6-94F1-4FCD-B7A9-53A938B55F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD44202-1EEA-4A35-A6AA-7D7AAD8BB4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{703252D3-C12B-466E-8ACC-15D787E6709C}"/>
+    <workbookView xWindow="-16330" yWindow="5010" windowWidth="28800" windowHeight="15420" xr2:uid="{703252D3-C12B-466E-8ACC-15D787E6709C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>PROJEKTTITEL:</t>
   </si>
@@ -119,30 +119,6 @@
     <t>Erik Grüneberger, Paul Leon Weber</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
     <t>2.11</t>
   </si>
   <si>
@@ -198,13 +174,49 @@
   </si>
   <si>
     <t>3.8</t>
+  </si>
+  <si>
+    <t>UML-Diagramme</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>Layout Startseite</t>
+  </si>
+  <si>
+    <t>Layout Detailseite</t>
+  </si>
+  <si>
+    <t>Layout Warenkorb</t>
+  </si>
+  <si>
+    <t>Layout Login</t>
+  </si>
+  <si>
+    <t>Layout Kassenbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout Registrierung </t>
+  </si>
+  <si>
+    <t>generierte API-Coc</t>
+  </si>
+  <si>
+    <t>Layout Infoseiten</t>
+  </si>
+  <si>
+    <t>Testen</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +264,12 @@
       <color rgb="FF434343"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -332,48 +350,48 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -691,7 +709,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,396 +721,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>44638</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>44638</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>44649</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>44650</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>44650</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9">
+        <v>44651</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9">
+        <v>44655</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D19" s="9">
         <v>44650</v>
       </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="B28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="C28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="D28" s="9">
+        <v>44650</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="C29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="9">
+        <v>44651</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="B31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="9">
+        <v>44656</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="13">
-        <v>44650</v>
-      </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="13">
-        <v>44651</v>
-      </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Dokumentation/Projektkalender.xlsx
+++ b/Dokumentation/Projektkalender.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicole\Documents\GitHub\TeeShop_soft\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD44202-1EEA-4A35-A6AA-7D7AAD8BB4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FFFC72-A130-4929-B583-B955E428BA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16330" yWindow="5010" windowWidth="28800" windowHeight="15420" xr2:uid="{703252D3-C12B-466E-8ACC-15D787E6709C}"/>
+    <workbookView xWindow="12640" yWindow="3510" windowWidth="28800" windowHeight="15420" xr2:uid="{703252D3-C12B-466E-8ACC-15D787E6709C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>PROJEKTTITEL:</t>
   </si>
@@ -91,52 +91,21 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>Ideensammlung 
-(Entwurf, Funktion)</t>
-  </si>
-  <si>
     <t>1.4</t>
   </si>
   <si>
     <t>Projektbearbeitung</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website-Layout </t>
-  </si>
-  <si>
     <t>Anna Bacinscaia</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
     <t>Datenbank anlegen</t>
   </si>
   <si>
     <t>Erik Grüneberger, Paul Leon Weber</t>
   </si>
   <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
     <t>Projektdokumentation</t>
   </si>
   <si>
@@ -179,9 +148,6 @@
     <t>UML-Diagramme</t>
   </si>
   <si>
-    <t>2.17</t>
-  </si>
-  <si>
     <t>Layout Startseite</t>
   </si>
   <si>
@@ -210,6 +176,72 @@
   </si>
   <si>
     <t>Fehlerbehebung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideensammlung </t>
+  </si>
+  <si>
+    <t>Layout "Produkt anlegen"</t>
+  </si>
+  <si>
+    <t>Layout "Kategorie anlegen"</t>
+  </si>
+  <si>
+    <t>Layout "Produkt bearbeiten"</t>
+  </si>
+  <si>
+    <t>Layout "Kategorie bearbeiten"</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>2.1.8</t>
+  </si>
+  <si>
+    <t>2.1.9</t>
+  </si>
+  <si>
+    <t>2.1.10</t>
+  </si>
+  <si>
+    <t>2.1.11</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Datenbankstruktur erstellen</t>
+  </si>
+  <si>
+    <t>Website-Entwurf</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
 </sst>
 </file>
@@ -383,6 +415,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -391,7 +424,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -709,22 +741,22 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.6328125" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
     <col min="3" max="3" width="41.36328125" customWidth="1"/>
     <col min="4" max="4" width="33.36328125" customWidth="1"/>
     <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -732,10 +764,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -793,7 +825,7 @@
         <v>44638</v>
       </c>
       <c r="E6" s="9">
-        <v>44638</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -809,14 +841,16 @@
       <c r="D7" s="9">
         <v>44649</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9">
+        <v>44665</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>13</v>
@@ -824,23 +858,33 @@
       <c r="D8" s="9">
         <v>44650</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <v>44658</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9">
+        <v>44641</v>
+      </c>
+      <c r="E9" s="9">
+        <v>44658</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -848,173 +892,202 @@
     </row>
     <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9">
-        <v>44650</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>44651</v>
+      </c>
+      <c r="E11" s="9">
+        <v>44655</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="9">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="9">
-        <v>44655</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="9">
+        <v>19</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9">
         <v>44650</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <v>44658</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1029,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -1037,13 +1110,13 @@
     </row>
     <row r="28" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D28" s="9">
         <v>44650</v>
@@ -1052,13 +1125,13 @@
     </row>
     <row r="29" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9">
         <v>44651</v>
@@ -1067,10 +1140,10 @@
     </row>
     <row r="30" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1078,13 +1151,13 @@
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D31" s="9">
         <v>44656</v>
@@ -1093,10 +1166,10 @@
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1104,7 +1177,7 @@
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1113,7 +1186,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1122,7 +1195,7 @@
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>

--- a/Dokumentation/Projektkalender.xlsx
+++ b/Dokumentation/Projektkalender.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicole\Documents\GitHub\TeeShop_soft\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FFFC72-A130-4929-B583-B955E428BA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50817B1A-1F4F-47F7-A27D-9EEB283B4CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="3510" windowWidth="28800" windowHeight="15420" xr2:uid="{703252D3-C12B-466E-8ACC-15D787E6709C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{703252D3-C12B-466E-8ACC-15D787E6709C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>PROJEKTTITEL:</t>
   </si>
@@ -136,15 +135,6 @@
     <t>3.5</t>
   </si>
   <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
     <t>UML-Diagramme</t>
   </si>
   <si>
@@ -226,29 +216,59 @@
     <t>2.1.11</t>
   </si>
   <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
     <t>Datenbankstruktur erstellen</t>
   </si>
   <si>
     <t>Website-Entwurf</t>
   </si>
   <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
     <t>2.4</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Medieninhalte raussuchen</t>
+  </si>
+  <si>
+    <t>2.1.12</t>
+  </si>
+  <si>
+    <t>Layout "Mein Konto"</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.3.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Umsetzung Datenbankstruktur</t>
+  </si>
+  <si>
+    <t>CRUD für "Kategorien" programmieren und testen</t>
+  </si>
+  <si>
+    <t>Funktionen, Berechnungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +323,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -324,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -376,11 +407,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -403,9 +471,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,7 +480,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -424,6 +500,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -738,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C11B52-B5B7-44CB-BA2C-031AE2D0FAE0}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,10 +841,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -764,10 +852,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -807,75 +895,75 @@
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>44638</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>44657</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>44649</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>44665</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>44650</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>44658</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>44641</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>44658</v>
       </c>
     </row>
@@ -886,336 +974,452 @@
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8">
+        <v>44651</v>
+      </c>
+      <c r="E11" s="8">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8">
+        <v>44662</v>
+      </c>
+      <c r="E12" s="8">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8">
+        <v>44683</v>
+      </c>
+      <c r="E13" s="8">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8">
+        <v>44683</v>
+      </c>
+      <c r="E14" s="8">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D15" s="8">
+        <v>44683</v>
+      </c>
+      <c r="E15" s="8">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8">
+        <v>44697</v>
+      </c>
+      <c r="E16" s="8">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8">
+        <v>44690</v>
+      </c>
+      <c r="E17" s="8">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8">
+        <v>44697</v>
+      </c>
+      <c r="E18" s="8">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8">
+        <v>44655</v>
+      </c>
+      <c r="E19" s="8">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8">
+        <v>44656</v>
+      </c>
+      <c r="E20" s="8">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8">
+        <v>44690</v>
+      </c>
+      <c r="E21" s="8">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8">
+        <v>44690</v>
+      </c>
+      <c r="E22" s="8">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8">
+        <v>44677</v>
+      </c>
+      <c r="E23" s="8">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="8">
+        <v>44650</v>
+      </c>
+      <c r="E24" s="8">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="8">
+        <v>44664</v>
+      </c>
+      <c r="E25" s="12">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="8">
+        <v>44658</v>
+      </c>
+      <c r="E26" s="8">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="8">
+        <v>44683</v>
+      </c>
+      <c r="E27" s="8">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="8">
+        <v>44676</v>
+      </c>
+      <c r="E28" s="12">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="8">
+        <v>44676</v>
+      </c>
+      <c r="E29" s="11">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="11">
+        <v>44713</v>
+      </c>
+      <c r="E30" s="11">
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="8">
+        <v>44650</v>
+      </c>
+      <c r="E32" s="8">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="8">
         <v>44651</v>
       </c>
-      <c r="E11" s="9">
-        <v>44655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="9">
-        <v>44662</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="E33" s="8">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="8">
+        <v>44669</v>
+      </c>
+      <c r="E34" s="11">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="8">
+        <v>44656</v>
+      </c>
+      <c r="E35" s="8">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="9">
-        <v>44650</v>
-      </c>
-      <c r="E22" s="9">
-        <v>44658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
-        <v>3</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="9">
-        <v>44650</v>
-      </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="9">
-        <v>44651</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="9">
-        <v>44656</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-    </row>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C31:E31"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>